--- a/excel/fon_clustering.xlsx
+++ b/excel/fon_clustering.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -611,56 +611,56 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Marina Jovanovic Milenkovic</t>
+          <t>Milos Milic</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Milos Milic</t>
+          <t>Milos Milovanovic</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Milos Milovanovic</t>
+          <t>Ognjen Pantelic</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ognjen Pantelic</t>
+          <t>Marko Petrovic</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -671,26 +671,26 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Marko Petrovic</t>
+          <t>Dusan Savic</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.7</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>FON_IS</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dusan Savic</t>
+          <t>Bojan Tomic</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -701,97 +701,97 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bojan Tomic</t>
+          <t>Nina Turajlic</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nina Turajlic</t>
+          <t>Zoran Sevarac</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8666666666666667</v>
+        <v>1</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>FON_IS</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Zoran Sevarac</t>
+          <t>Srdja Bjeladinovic</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>FON_SI</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Srdja Bjeladinovic</t>
+          <t>Ivan Milenkovic</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>FON_IS</t>
+          <t>FON_IT</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Marija Bogicevic Sretenovic</t>
+          <t>Nikola Milikic</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_SI</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ivan Milenkovic</t>
+          <t>Ana Pajic</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>FON_IT</t>
+          <t>FON_IS</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Nikola Milikic</t>
+          <t>Uros Sosevic</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -799,172 +799,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FON_SI</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Elena Milovanovic</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Ana Pajic</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Dejan Stojimirovic</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>0</v>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Uros Sosevic</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>1</v>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
           <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Milos Zlatkovic</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>0</v>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Jelena Ljubenovic</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Mina Marjanovic</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Bojan Marceta</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>0</v>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>FON_IT</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Andela Pejanovic</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Sofija Prokic</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>0</v>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>FON_IS</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Tatjana Stojanovic</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>FON_SI</t>
         </is>
       </c>
     </row>
